--- a/프로젝트/프로젝트 참고자료/01_요구사항/[별첨1]요구사항 정의서.xlsx
+++ b/프로젝트/프로젝트 참고자료/01_요구사항/[별첨1]요구사항 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kdt_2024\SubLecture\쉽게배우는 소프트웨어공학\자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kdt2024\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029279C-E99D-4E45-ACAA-39376E1C2CC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4051212-B4C6-4962-81C8-2D1CE5790255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>요구사항
  정의서</t>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>요구사항 내용</t>
-  </si>
-  <si>
-    <t>우선순위</t>
-  </si>
-  <si>
-    <t>난이도</t>
   </si>
   <si>
     <t>비고</t>
@@ -88,12 +82,6 @@
  / 개인정보 동의</t>
   </si>
   <si>
-    <t>상</t>
-  </si>
-  <si>
-    <t>하</t>
-  </si>
-  <si>
     <t>전다현</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>아이디 / 이름 / 이메일 인증시 새로운 비밀번호 변경</t>
   </si>
   <si>
-    <t>중</t>
-  </si>
-  <si>
     <t>전원</t>
   </si>
   <si>
@@ -218,6 +203,42 @@
   </si>
   <si>
     <t>제품소개</t>
+  </si>
+  <si>
+    <t>필수데이터</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택데이터</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비밀번호/이름 /핸드폰번호</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 / 회사명/ 직위</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 / 비밀번호</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 환경</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web/App</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -227,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -300,6 +321,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -322,18 +357,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -459,11 +494,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,9 +538,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -495,57 +553,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -784,426 +904,420 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="108.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="41.25" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.75">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:13" ht="12.75">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="28">
+      <c r="B3" s="20"/>
+      <c r="C3" s="33">
         <v>45217</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="22" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="40.5">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="F7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="27">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="21" t="s">
+      <c r="F8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="G8" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F9" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="8" t="s">
+      <c r="F10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="G10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75">
+      <c r="A14" s="28"/>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24">
+      <c r="A15" s="29"/>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19"/>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="12.75">
+      <c r="A16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="20"/>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="E17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="F17" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="8" t="s">
+      <c r="F18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I16:I18"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="F7:H18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="G7:I18">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"하"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:H18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G7:I18">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"중"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:H18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="G7:I18">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"상"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="WEB">
+      <formula>NOT(ISERROR(SEARCH("WEB",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="WEB">
+      <formula>NOT(ISERROR(SEARCH("WEB",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
